--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21075" windowHeight="13350"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="18960" windowHeight="7163"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Technologies to power CCS" sheetId="6" r:id="rId2"/>
     <sheet name="CPbE-FoCSbS" sheetId="4" r:id="rId3"/>
     <sheet name="CPbE-FoESCbES" sheetId="5" r:id="rId4"/>
     <sheet name="CPbE-PoICbI" sheetId="3" r:id="rId5"/>
@@ -18,49 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
-  <si>
-    <t>About:</t>
-  </si>
-  <si>
-    <t>This is a portion of Figure 4 on Page 22.  It shows the breakdown of CCS by industry within the OECD.</t>
-  </si>
-  <si>
-    <t>The report only has this information as a graph, not in numbers.  Fortunately, the graph is vector-based, so it is</t>
-  </si>
-  <si>
-    <t>possible to zoom in substantially, take a screenshot, and measure using a pixel ruler program.</t>
-  </si>
-  <si>
-    <t>Refining (red)</t>
-  </si>
-  <si>
-    <t>Gas processing (light blue)</t>
-  </si>
-  <si>
-    <t>Chemicals (dark blue)</t>
-  </si>
-  <si>
-    <t>Gas power (purple)</t>
-  </si>
-  <si>
-    <t>Cement (orange)</t>
-  </si>
-  <si>
-    <t>Iron and steel (turquoise)</t>
-  </si>
-  <si>
-    <t>Bioenergy (green)</t>
-  </si>
-  <si>
-    <t>Coal power (gray)</t>
-  </si>
-  <si>
-    <t>See key to the colors and measurement results below.</t>
-  </si>
-  <si>
-    <t>Pixels</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Source:</t>
   </si>
@@ -77,9 +35,6 @@
     <t>Page 22, Figure 4, right-hand side, OECD section</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>cement and other carbonates</t>
   </si>
   <si>
@@ -101,57 +56,21 @@
     <t>other industries</t>
   </si>
   <si>
-    <t>Read from figure</t>
-  </si>
-  <si>
-    <t>Excluding Power Sector</t>
-  </si>
-  <si>
-    <t>Mapped onto model industry categories</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>This gives us results for 2020 and 2030.</t>
-  </si>
-  <si>
-    <t>We linearly interpolate to obtain 2021-2029.</t>
-  </si>
-  <si>
-    <t>By Model Sector</t>
-  </si>
-  <si>
     <t>electricity sector</t>
   </si>
   <si>
     <t>industry sector</t>
   </si>
   <si>
-    <t>Mapped onto model electricity source categories</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>We determine the fractions by industry and by electricity source by measuring the IEA's figure (see the "Data" tab).</t>
-  </si>
-  <si>
-    <t>Since we have no data for prior to 2020, we assume the values 2020 apply to 2013-2019.</t>
-  </si>
-  <si>
-    <t>We export to CSV for each of the model variables.</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -167,9 +86,6 @@
     <t>CPbE Fraction of Electricity Sector CCS by Energy Source</t>
   </si>
   <si>
-    <t>We are assuming plants in the electricity sector that engage in CCS use their main fuel type</t>
-  </si>
-  <si>
     <t>also for providing the energy to conduct that CCS.</t>
   </si>
   <si>
@@ -206,9 +122,6 @@
     <t>onshore wind</t>
   </si>
   <si>
-    <t>Our source does not specify what share of coal CCS is for lignite and for hard coal.</t>
-  </si>
-  <si>
     <t>As hard coal is the predominant type in the U.S., and the newer and more technologically</t>
   </si>
   <si>
@@ -216,6 +129,108 @@
   </si>
   <si>
     <t>than lignite, we assume all coal CCS refers to hard coal rather than lignite.</t>
+  </si>
+  <si>
+    <t>Therefore, assume 100% of CCS in industry through 2030, or an input value of one:</t>
+  </si>
+  <si>
+    <t>Conversely, assume no CCS (zero percent) for electricity through 2030</t>
+  </si>
+  <si>
+    <t>For CPbE Fraction of Electricity Sector CCS by Energy Source,</t>
+  </si>
+  <si>
+    <t>Grid energy is assumed as the supply, and a weighted average of generation sources is found to populate the variable "CPbE-FoESCbES"</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[hard coal es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[natural gas nonpeaker es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[nuclear es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[hydro es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[onshore wind es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[solar PV es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[solar thermal es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[biomass es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[geothermal es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[petroleum es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[natural gas peaker es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[lignite es] : EI</t>
+  </si>
+  <si>
+    <t>Electricity Generation Capacity by Type Including Distributed Generation[offshore wind es] : EI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total generation across years. </t>
+  </si>
+  <si>
+    <t>Fraction by source</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>2020-2030</t>
+  </si>
+  <si>
+    <t>Industry is the initial focus in light of requirements for 2030 target.</t>
+  </si>
+  <si>
+    <t>This variable sets the sources assumed for the electric power requirements of CCS.</t>
+  </si>
+  <si>
+    <t>The sheet tabbed "Technologies to power CCS" uses EPS model output to estimate future generation sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that will provide power for CCS. </t>
+  </si>
+  <si>
+    <t>Electricity generation in the Enegy Innovation Scenario is used to estimate the relative weights of sources</t>
+  </si>
+  <si>
+    <t>An implicit asumption is that plants in the electricity sector that engage in CCS use their main fuel type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See the spreadsheet "Carbon Sequestration Amounts", notes on the sheet tabbed "About" explain the rationale. </t>
+  </si>
+  <si>
+    <t>CCS for carbon capture, some capture of process emissions due to concrete is represented as CCS in NGPS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 75-25 percent level was chosen to minimize the amount attributed to NGPS while also allowing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">full capture of the cement subsector potential including process emissions. </t>
+  </si>
+  <si>
+    <t>For CPbE Fraction of CO2 Sequestration by Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In brief, thought the intention is to exclusively target cement and concrete emissions, because the model does not currently enable </t>
   </si>
 </sst>
 </file>
@@ -223,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,13 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -258,24 +266,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,35 +283,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -325,55 +310,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1560327</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="6124575"/>
-          <a:ext cx="9218427" cy="7772400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,113 +599,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="32" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>65</v>
+    <row r="33" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -783,729 +777,1725 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O19" sqref="B19:O31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="94.06640625" customWidth="1"/>
+    <col min="16" max="16" width="16.06640625" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="L7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
         <v>2020</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F3">
+        <v>2021</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+      <c r="H3">
+        <v>2023</v>
+      </c>
+      <c r="I3">
+        <v>2024</v>
+      </c>
+      <c r="J3">
+        <v>2025</v>
+      </c>
+      <c r="K3">
+        <v>2026</v>
+      </c>
+      <c r="L3">
+        <v>2027</v>
+      </c>
+      <c r="M3">
+        <v>2028</v>
+      </c>
+      <c r="N3">
+        <v>2029</v>
+      </c>
+      <c r="O3">
         <v>2030</v>
       </c>
-      <c r="E8" s="1">
-        <v>2050</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2030</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2050</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2030</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2050</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P8" s="4">
-        <v>2030</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>SUM(E4:O4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R16" si="0">A4</f>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[hard coal es] : EI</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>31090.3</v>
+      </c>
+      <c r="C5">
+        <v>31007.9</v>
+      </c>
+      <c r="D5">
+        <v>30088.400000000001</v>
+      </c>
+      <c r="E5">
+        <v>29053.8</v>
+      </c>
+      <c r="F5">
+        <v>27996.400000000001</v>
+      </c>
+      <c r="G5">
+        <v>26931.8</v>
+      </c>
+      <c r="H5">
+        <v>25864.1</v>
+      </c>
+      <c r="I5">
+        <v>24797.599999999999</v>
+      </c>
+      <c r="J5">
+        <v>23746.7</v>
+      </c>
+      <c r="K5">
+        <v>23662.7</v>
+      </c>
+      <c r="L5">
+        <v>23465.9</v>
+      </c>
+      <c r="M5">
+        <v>23272.5</v>
+      </c>
+      <c r="N5">
+        <v>23067.3</v>
+      </c>
+      <c r="O5">
+        <v>22853.1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P16" si="1">SUM(E5:O5)</f>
+        <v>274711.90000000002</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>P5/$P$17</f>
+        <v>0.19966827574251833</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[natural gas nonpeaker es] : EI</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2393</v>
+      </c>
+      <c r="C6">
+        <v>2393</v>
+      </c>
+      <c r="D6">
+        <v>2393</v>
+      </c>
+      <c r="E6">
+        <v>2393</v>
+      </c>
+      <c r="F6">
+        <v>2393</v>
+      </c>
+      <c r="G6">
+        <v>2393</v>
+      </c>
+      <c r="H6">
+        <v>2393</v>
+      </c>
+      <c r="I6">
+        <v>2393</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>11965</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" ref="Q6:Q16" si="2">P6/$P$17</f>
+        <v>8.6964959263112797E-3</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[nuclear es] : EI</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>13992</v>
+      </c>
+      <c r="C7">
+        <v>13992</v>
+      </c>
+      <c r="D7">
+        <v>13992</v>
+      </c>
+      <c r="E7">
+        <v>13992</v>
+      </c>
+      <c r="F7">
+        <v>13992</v>
+      </c>
+      <c r="G7">
+        <v>13992</v>
+      </c>
+      <c r="H7">
+        <v>13992</v>
+      </c>
+      <c r="I7">
+        <v>13992</v>
+      </c>
+      <c r="J7">
+        <v>13992</v>
+      </c>
+      <c r="K7">
+        <v>13992</v>
+      </c>
+      <c r="L7">
+        <v>13992</v>
+      </c>
+      <c r="M7">
+        <v>13992</v>
+      </c>
+      <c r="N7">
+        <v>13992</v>
+      </c>
+      <c r="O7">
+        <v>13992</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>153912</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11186753706731481</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[hydro es] : EI</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>8440</v>
+      </c>
+      <c r="C8">
+        <v>10445</v>
+      </c>
+      <c r="D8">
+        <v>12295</v>
+      </c>
+      <c r="E8">
+        <v>13870</v>
+      </c>
+      <c r="F8">
+        <v>14765</v>
+      </c>
+      <c r="G8">
+        <v>15325</v>
+      </c>
+      <c r="H8">
+        <v>15675</v>
+      </c>
+      <c r="I8">
+        <v>15955</v>
+      </c>
+      <c r="J8">
+        <v>17360</v>
+      </c>
+      <c r="K8">
+        <v>18155</v>
+      </c>
+      <c r="L8">
+        <v>18785</v>
+      </c>
+      <c r="M8">
+        <v>19415</v>
+      </c>
+      <c r="N8">
+        <v>20280</v>
+      </c>
+      <c r="O8">
+        <v>22190</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>191775</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13938742217035902</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[onshore wind es] : EI</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>19515</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>25700</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>30921.5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>35697</v>
+      </c>
+      <c r="F9">
+        <v>39352.5</v>
       </c>
       <c r="G9">
-        <f>C9</f>
-        <v>27</v>
+        <v>42040</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:I9" si="0">D9</f>
-        <v>12</v>
+        <v>44307.5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
+        <v>46423</v>
+      </c>
+      <c r="J9">
+        <v>50322.5</v>
+      </c>
+      <c r="K9">
+        <v>53370</v>
+      </c>
+      <c r="L9">
+        <v>56159.5</v>
+      </c>
+      <c r="M9">
+        <v>58963</v>
+      </c>
+      <c r="N9">
+        <v>62134.5</v>
+      </c>
+      <c r="O9">
+        <v>66608</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>555377.5</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40366386680442479</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[solar PV es] : EI</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>1249</v>
+      </c>
+      <c r="C10">
+        <v>1249</v>
+      </c>
+      <c r="D10">
+        <v>1249</v>
+      </c>
+      <c r="E10">
+        <v>1249</v>
+      </c>
+      <c r="F10">
+        <v>1249</v>
+      </c>
+      <c r="G10">
+        <v>1249</v>
+      </c>
+      <c r="H10">
+        <v>1249</v>
+      </c>
+      <c r="I10">
+        <v>1249</v>
+      </c>
+      <c r="J10">
+        <v>1249</v>
+      </c>
+      <c r="K10">
+        <v>1249</v>
+      </c>
+      <c r="L10">
+        <v>1249</v>
+      </c>
+      <c r="M10">
+        <v>1249</v>
+      </c>
+      <c r="N10">
+        <v>1249</v>
+      </c>
+      <c r="O10">
+        <v>1249</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>13739</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9858886361546741E-3</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[solar thermal es] : EI</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>1324</v>
+      </c>
+      <c r="C11">
+        <v>1324</v>
+      </c>
+      <c r="D11">
+        <v>1324</v>
+      </c>
+      <c r="E11">
+        <v>1324</v>
+      </c>
+      <c r="F11">
+        <v>1324</v>
+      </c>
+      <c r="G11">
+        <v>1324</v>
+      </c>
+      <c r="H11">
+        <v>1324</v>
+      </c>
+      <c r="I11">
+        <v>1324</v>
+      </c>
+      <c r="J11">
+        <v>1324</v>
+      </c>
+      <c r="K11">
+        <v>1324</v>
+      </c>
+      <c r="L11">
+        <v>1324</v>
+      </c>
+      <c r="M11">
+        <v>1324</v>
+      </c>
+      <c r="N11">
+        <v>1324</v>
+      </c>
+      <c r="O11">
+        <v>1324</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>14564</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0585521660743625E-2</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[biomass es] : EI</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>2714</v>
+      </c>
+      <c r="C12">
+        <v>2724</v>
+      </c>
+      <c r="D12">
+        <v>2734</v>
+      </c>
+      <c r="E12">
+        <v>2744</v>
+      </c>
+      <c r="F12">
+        <v>2744</v>
+      </c>
+      <c r="G12">
+        <v>2744</v>
+      </c>
+      <c r="H12">
+        <v>2744</v>
+      </c>
+      <c r="I12">
+        <v>2744</v>
+      </c>
+      <c r="J12">
+        <v>2744</v>
+      </c>
+      <c r="K12">
+        <v>2744</v>
+      </c>
+      <c r="L12">
+        <v>2744</v>
+      </c>
+      <c r="M12">
+        <v>2744</v>
+      </c>
+      <c r="N12">
+        <v>2744</v>
+      </c>
+      <c r="O12">
+        <v>2754</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>30194</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1945841872047036E-2</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[geothermal es] : EI</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>355</v>
+      </c>
+      <c r="C13">
+        <v>355</v>
+      </c>
+      <c r="D13">
+        <v>355</v>
+      </c>
+      <c r="E13">
+        <v>355</v>
+      </c>
+      <c r="F13">
+        <v>355</v>
+      </c>
+      <c r="G13">
+        <v>355</v>
+      </c>
+      <c r="H13">
+        <v>355</v>
+      </c>
+      <c r="I13">
+        <v>355</v>
+      </c>
+      <c r="J13">
+        <v>355</v>
+      </c>
+      <c r="K13">
+        <v>355</v>
+      </c>
+      <c r="L13">
+        <v>355</v>
+      </c>
+      <c r="M13">
+        <v>355</v>
+      </c>
+      <c r="N13">
+        <v>355</v>
+      </c>
+      <c r="O13">
+        <v>355</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>3905</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="2"/>
+        <v>2.8382629830543708E-3</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[petroleum es] : EI</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>12074</v>
+      </c>
+      <c r="C14">
+        <v>12074</v>
+      </c>
+      <c r="D14">
+        <v>12074</v>
+      </c>
+      <c r="E14">
+        <v>11944</v>
+      </c>
+      <c r="F14">
+        <v>11944</v>
+      </c>
+      <c r="G14">
+        <v>11944</v>
+      </c>
+      <c r="H14">
+        <v>11944</v>
+      </c>
+      <c r="I14">
+        <v>11944</v>
+      </c>
+      <c r="J14">
+        <v>11944</v>
+      </c>
+      <c r="K14">
+        <v>11944</v>
+      </c>
+      <c r="L14">
+        <v>11944</v>
+      </c>
+      <c r="M14">
+        <v>10949.7</v>
+      </c>
+      <c r="N14">
+        <v>9955.36</v>
+      </c>
+      <c r="O14">
+        <v>8961.0400000000009</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>125418.1</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="2"/>
+        <v>9.115737532266617E-2</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[natural gas peaker es] : EI</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[lignite es] : EI</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="L9">
-        <f>G13</f>
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <f>H13</f>
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <f>I13</f>
-        <v>15</v>
-      </c>
-      <c r="O9" s="10">
-        <f>L9/SUM(L$9:L$15)</f>
-        <v>1.8867924528301886E-2</v>
-      </c>
-      <c r="P9" s="10">
-        <f>M9/SUM(M$9:M$15)</f>
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="Q9" s="10">
-        <f>N9/SUM(N$9:N$15)</f>
-        <v>0.18072289156626506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>155</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G11" si="1">C10</f>
-        <v>155</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H11" si="2">D10</f>
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I11" si="3">E10</f>
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <f>G9+G10</f>
-        <v>182</v>
-      </c>
-      <c r="M10">
-        <f>H9+H10</f>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
         <v>30</v>
       </c>
-      <c r="N10">
-        <f>I9+I10</f>
-        <v>17</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:Q15" si="4">L10/SUM(L$9:L$15)</f>
-        <v>0.68679245283018864</v>
-      </c>
-      <c r="P10" s="10">
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0351181440594719E-4</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>Electricity Generation Capacity by Type Including Distributed Generation[offshore wind es] : EI</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f t="shared" ref="B17:O17" si="3">SUM(B4:B16)</f>
+        <v>93211.3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>101278.9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>107445.9</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>112646.8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>116139.9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>118322.8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>119872.6</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>121201.60000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>123062.2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>126820.7</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>130043.4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>132289.20000000001</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>135126.16</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>140316.14000000001</v>
+      </c>
+      <c r="P17">
+        <f>SUM(P4:P16)</f>
+        <v>1375841.5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>'CPbE-FoESCbES'!A2</f>
+        <v>hard coal</v>
+      </c>
+      <c r="B19">
+        <f>B4/$B$17</f>
+        <v>5.9005721409314106E-4</v>
+      </c>
+      <c r="C19">
+        <f>C4/$C$17</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>D4/$D$17</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>E4/$E$17</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>F4/$F$17</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>G4/$G$17</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>H4/$H$17</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>I4/$I$17</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>J4/$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>K4/$K$17</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>L4/$L$17</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>M4/$M$17</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>N4/$N$17</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>O4/$O$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>'CPbE-FoESCbES'!A3</f>
+        <v>natural gas nonpeaker</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B31" si="4">B5/$B$17</f>
+        <v>0.3335464691512724</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C31" si="5">C5/$C$17</f>
+        <v>0.30616347531420662</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D31" si="6">D5/$D$17</f>
+        <v>0.28003302126930857</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E31" si="7">E5/$E$17</f>
+        <v>0.25791944378357839</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F31" si="8">F5/$F$17</f>
+        <v>0.24105755214185653</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G31" si="9">G5/$G$17</f>
+        <v>0.22761293681353043</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H31" si="10">H5/$H$17</f>
+        <v>0.21576323530147837</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I31" si="11">I5/$I$17</f>
+        <v>0.20459795910285011</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:J31" si="12">J5/$J$17</f>
+        <v>0.19296502094063003</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K31" si="13">K5/$K$17</f>
+        <v>0.1865838936388145</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L31" si="14">L5/$L$17</f>
+        <v>0.18044668164628119</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M31" si="15">M5/$M$17</f>
+        <v>0.17592139040828728</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N31" si="16">N5/$N$17</f>
+        <v>0.1707093578327098</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O31" si="17">O5/$O$17</f>
+        <v>0.16286864789752623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>'CPbE-FoESCbES'!A4</f>
+        <v>nuclear</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="4"/>
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="Q10" s="10">
+        <v>2.5672852969543393E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>2.3627823761908948E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>2.2271673465437025E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>2.1243390846433275E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="8"/>
+        <v>2.0604460654779281E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>2.0224335461973515E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="10"/>
+        <v>1.9962860570305472E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>1.9743963776055761E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>'CPbE-FoESCbES'!A5</f>
+        <v>hydro</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="4"/>
-        <v>0.20481927710843373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11">
-        <f>G14</f>
-        <v>32</v>
-      </c>
-      <c r="M11">
-        <f>H14</f>
-        <v>31</v>
-      </c>
-      <c r="N11">
-        <f>I14</f>
-        <v>35</v>
-      </c>
-      <c r="O11" s="10">
+        <v>0.15011055526529507</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>0.13815315924639782</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>0.13022367535662133</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>0.12421125145143937</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>0.12047539217788203</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>0.11825277968405075</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>0.11672392189708072</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="11"/>
+        <v>0.11544402054098295</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="12"/>
+        <v>0.11369860119516798</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="13"/>
+        <v>0.11032899203363489</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="14"/>
+        <v>0.10759484910422214</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="15"/>
+        <v>0.10576827133280721</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="16"/>
+        <v>0.10354767722253042</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="17"/>
+        <v>9.9717680375187051E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>'CPbE-FoESCbES'!A6</f>
+        <v>onshore wind</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="4"/>
-        <v>0.12075471698113208</v>
-      </c>
-      <c r="P11" s="10">
+        <v>9.0546961580838373E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>0.10313105691313788</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>0.11442968042521866</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>0.12312822024238593</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>0.12713115819800086</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>0.12951857123056587</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>0.13076382759696545</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>0.13164017636730868</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="12"/>
+        <v>0.14106687512493682</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="13"/>
+        <v>0.14315486351991433</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="14"/>
+        <v>0.14445177533038972</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="15"/>
+        <v>0.14676179158994082</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="16"/>
+        <v>0.15008196784397632</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="17"/>
+        <v>0.15814289076082053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>'CPbE-FoESCbES'!A7</f>
+        <v>solar PV</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="4"/>
-        <v>0.33695652173913043</v>
-      </c>
-      <c r="Q11" s="10">
+        <v>0.20936302787322997</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>0.253754730748458</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>0.28778669079043501</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>0.31689315630803538</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>0.33883704050029317</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>0.35529923226968935</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>0.36962158157910979</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>0.38302299639608717</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="12"/>
+        <v>0.4089192294628245</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="13"/>
+        <v>0.42083035340445213</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="14"/>
+        <v>0.4318519817230248</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="15"/>
+        <v>0.44571287754404737</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="16"/>
+        <v>0.4598258397929757</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="17"/>
+        <v>0.474699489310353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>'CPbE-FoESCbES'!A8</f>
+        <v>solar thermal</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="4"/>
-        <v>0.42168674698795183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12">
-        <f>G11</f>
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <f>H11</f>
-        <v>21</v>
-      </c>
-      <c r="N12">
-        <f>I11</f>
-        <v>16</v>
-      </c>
-      <c r="O12" s="10">
+        <v>1.3399662916406058E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>1.2332282439876422E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>1.1624454725587482E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>1.1087753935309303E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>1.0754271357216599E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>1.0555869198497669E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>1.0419395257965539E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>1.0305144486541431E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="12"/>
+        <v>1.0149339114691595E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
+        <v>9.8485499606925375E-3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="14"/>
+        <v>9.6044858870192578E-3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="15"/>
+        <v>9.4414358844108204E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="16"/>
+        <v>9.2432138972942026E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="17"/>
+        <v>8.901328100958306E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>'CPbE-FoESCbES'!A9</f>
+        <v>biomass</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="4"/>
-        <v>0.17358490566037735</v>
-      </c>
-      <c r="P12" s="10">
+        <v>1.4204286390169431E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>1.3072811809764917E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>1.2322480429686009E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>1.1753551809727395E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>1.1400044256969397E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>1.118972843779897E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>1.1045059504840972E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="11"/>
+        <v>1.0923948198703647E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="12"/>
+        <v>1.0758787019897256E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>1.043993606721931E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="14"/>
+        <v>1.0181216424670533E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="15"/>
+        <v>1.0008375589239333E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="16"/>
+        <v>9.7982507606225178E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="17"/>
+        <v>9.4358353928493174E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>'CPbE-FoESCbES'!A10</f>
+        <v>geothermal</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="4"/>
-        <v>0.22826086956521738</v>
-      </c>
-      <c r="Q12" s="10">
+        <v>2.9116641437250634E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>2.6896026714350176E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>2.5445363666738333E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>2.4359324898709948E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>2.3626677825622375E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>2.3190796701903604E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="10"/>
+        <v>2.2890969245682499E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="11"/>
+        <v>2.2639965148974931E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="12"/>
+        <v>2.2297667358457757E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>2.1636846350792893E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="14"/>
+        <v>2.1100647937534699E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="15"/>
+        <v>2.0742434000659161E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="16"/>
+        <v>2.0306948706305276E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="17"/>
+        <v>1.9627107758237932E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>'CPbE-FoESCbES'!A11</f>
+        <v>petroleum</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="4"/>
-        <v>0.19277108433734941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <f>C13</f>
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="5">D13</f>
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I14" si="6">E13</f>
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
+        <v>3.8085511091466378E-3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>3.5051723508055482E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>3.3039883327330316E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>3.1514432722456387E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>3.0566583921632444E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>3.000267066026159E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>2.9614774352103817E-3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="11"/>
+        <v>2.9290042375678207E-3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="12"/>
+        <v>2.8847200846401251E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="13"/>
+        <v>2.7992275708933951E-3</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="14"/>
+        <v>2.729857878216042E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="15"/>
+        <v>2.6835146028549571E-3</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="16"/>
+        <v>2.6271744864206901E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="17"/>
+        <v>2.5300011816174529E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>'CPbE-FoESCbES'!A12</f>
+        <v>natural gas peaker</v>
+      </c>
+      <c r="B29">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
+        <v>0.12953365096291972</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>0.11921535482711602</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>0.11237283135047499</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>0.10603053082732931</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>0.10284148686196562</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>0.10094419672286321</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="10"/>
+        <v>9.9639116862402247E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="11"/>
+        <v>9.854655384087338E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="12"/>
+        <v>9.7056610397018739E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="13"/>
+        <v>9.4180208751410463E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="14"/>
+        <v>9.1846260556091283E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="15"/>
+        <v>8.2770929146143452E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="16"/>
+        <v>7.3674557169388963E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="17"/>
+        <v>6.3863216305693693E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>'CPbE-FoESCbES'!A13</f>
+        <v>lignite</v>
+      </c>
+      <c r="B30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>'CPbE-FoESCbES'!A14</f>
+        <v>offshore wind</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>31</v>
-      </c>
-      <c r="E14" s="7">
-        <v>35</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14" si="7">C14</f>
-        <v>32</v>
-      </c>
-      <c r="H14">
+        <v>1.0728312983511656E-4</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="I14">
+        <v>1.481058739776992E-4</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>69</v>
-      </c>
-      <c r="E15" s="7">
-        <v>85</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>328</v>
-      </c>
-      <c r="D16">
-        <v>238</v>
-      </c>
-      <c r="E16" s="7">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="M20" s="1">
-        <v>2030</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2050</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2030</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21">
-        <f>SUM(C12,C15:C16)</f>
-        <v>417</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ref="M21:N21" si="8">SUM(D12,D15:D16)</f>
-        <v>356</v>
-      </c>
-      <c r="N21">
+        <v>1.861401877596074E-4</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>2.2193262480603088E-4</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" ref="O21:Q22" si="9">L21/SUM(L$21:L$22)</f>
-        <v>0.6415384615384615</v>
-      </c>
-      <c r="P21" s="6">
+        <v>2.1525763325093273E-4</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="9"/>
-        <v>0.8537170263788969</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="9"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22">
-        <f>SUM(C9:C11,C13)</f>
-        <v>233</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ref="M22:N22" si="10">SUM(D9:D11,D13)</f>
-        <v>61</v>
-      </c>
-      <c r="N22">
+        <v>2.1128641310043373E-4</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="9"/>
-        <v>0.35846153846153844</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="9"/>
-        <v>0.14628297362110312</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="M26" s="1">
-        <v>2030</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2050</v>
-      </c>
-      <c r="O26" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P26" s="4">
-        <v>2030</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27">
-        <f>C16</f>
-        <v>328</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ref="M27:N27" si="11">D16</f>
-        <v>238</v>
-      </c>
-      <c r="N27">
+        <v>2.0855474895847758E-4</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="11"/>
-        <v>133</v>
-      </c>
-      <c r="O27" s="6">
-        <f>L27/SUM(L$27:L$29)</f>
-        <v>0.78657074340527577</v>
-      </c>
-      <c r="P27" s="6">
-        <f>M27/SUM(M$27:M$29)</f>
-        <v>0.6685393258426966</v>
-      </c>
-      <c r="Q27" s="6">
-        <f>N27/SUM(N$27:N$29)</f>
-        <v>0.4889705882352941</v>
-      </c>
-    </row>
-    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28">
-        <f>C12</f>
-        <v>36</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ref="M28:N28" si="12">D12</f>
-        <v>49</v>
-      </c>
-      <c r="N28">
+        <v>2.0626790405407189E-4</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="12"/>
-        <v>54</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" ref="O28:Q29" si="13">L28/SUM(L$27:L$29)</f>
-        <v>8.6330935251798566E-2</v>
-      </c>
-      <c r="P28" s="6">
+        <v>2.0314930173522008E-4</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="13"/>
-        <v>0.13764044943820225</v>
-      </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="13"/>
-        <v>0.19852941176470587</v>
-      </c>
-    </row>
-    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29">
-        <f>C15</f>
-        <v>53</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ref="M29:N29" si="14">D15</f>
-        <v>69</v>
-      </c>
-      <c r="N29">
+        <v>1.9712870217559122E-4</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="14"/>
-        <v>85</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="13"/>
-        <v>0.12709832134292565</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" si="13"/>
-        <v>0.19382022471910113</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="13"/>
-        <v>0.3125</v>
+        <v>1.9224351255042548E-4</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="15"/>
+        <v>1.88979901609504E-4</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="16"/>
+        <v>1.8501228777610494E-4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="17"/>
+        <v>2.1380291675640448E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1516,16 +2506,18 @@
   </sheetPr>
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -1644,316 +2636,316 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G3" si="0">$I2</f>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>$I2</f>
-        <v>0.6415384615384615</v>
-      </c>
-      <c r="I2" s="11">
-        <f>Data!O21</f>
-        <v>0.6415384615384615</v>
+        <f>About!$I$24</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.66275631802250501</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
-        <v>0.68397417450654863</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
-        <v>0.70519203099059213</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>0.72640988747463564</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
-        <v>0.74762774395867915</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>0.76884560044272277</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>0.79006345692676627</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>0.81128131341080989</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" si="1"/>
-        <v>0.8324991698948534</v>
-      </c>
-      <c r="S2" s="11">
-        <f>Data!P21</f>
-        <v>0.8537170263788969</v>
+        <f>About!$I$24</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.85353117505995202</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AL3" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.85334532374100724</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="2"/>
-        <v>0.85315947242206236</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="2"/>
-        <v>0.85297362110311747</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" si="2"/>
-        <v>0.8527877697841727</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="2"/>
-        <v>0.85260191846522781</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="2"/>
-        <v>0.85241606714628293</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="2"/>
-        <v>0.85223021582733816</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="2"/>
-        <v>0.85204436450839327</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="2"/>
-        <v>0.8518585131894485</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
-        <v>0.85167266187050361</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
-        <v>0.85148681055155873</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
-        <v>0.85130095923261395</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>0.85111510791366907</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>0.85092925659472418</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>0.85074340527577941</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>0.85055755395683452</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="2"/>
-        <v>0.85037170263788964</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="2"/>
-        <v>0.85018585131894486</v>
-      </c>
-      <c r="AM2" s="11">
-        <f>Data!Q21</f>
-        <v>0.85</v>
+        <f>About!$I$24</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.35846153846153844</v>
+        <f>About!$I$23</f>
+        <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.35846153846153844</v>
+        <f>$B$3</f>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.35846153846153844</v>
+        <f t="shared" ref="D3:AM3" si="0">$B$3</f>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.35846153846153844</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0.35846153846153844</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.35846153846153844</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <f>$I3</f>
-        <v>0.35846153846153844</v>
-      </c>
-      <c r="I3" s="11">
-        <f>Data!O22</f>
-        <v>0.35846153846153844</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J3">
-        <f>$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.33724368197749494</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.31602582549345137</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.29480796900940787</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0.2735901125253643</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0.2523722560413208</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.23115439955727726</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0.20993654307323373</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0.18871868658919019</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0.16750083010514666</v>
-      </c>
-      <c r="S3" s="11">
-        <f>Data!P22</f>
-        <v>0.14628297362110312</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="T3">
-        <f>$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.14646882494004798</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U3">
-        <f t="shared" si="2"/>
-        <v>0.14665467625899281</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
-        <v>0.14684052757793764</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
-        <v>0.1470263788968825</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X3">
-        <f t="shared" si="2"/>
-        <v>0.14721223021582736</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
-        <v>0.14739808153477219</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="2"/>
-        <v>0.14758393285371701</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="2"/>
-        <v>0.14776978417266187</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="2"/>
-        <v>0.14795563549160673</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="2"/>
-        <v>0.14814148681055156</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="2"/>
-        <v>0.14832733812949639</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="2"/>
-        <v>0.14851318944844125</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="2"/>
-        <v>0.1486990407673861</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="2"/>
-        <v>0.14888489208633093</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="2"/>
-        <v>0.14907074340527576</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="2"/>
-        <v>0.14925659472422062</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>0.14944244604316548</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>0.14962829736211031</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>0.14981414868105514</v>
-      </c>
-      <c r="AM3" s="11">
-        <f>Data!Q22</f>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1968,16 +2960,18 @@
   </sheetPr>
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -2096,1663 +3090,2043 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G3" si="0">$I2</f>
-        <v>0.78657074340527577</v>
+        <f t="shared" ref="B2:D14" si="0">C2</f>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="C2">
         <f t="shared" si="0"/>
-        <v>0.78657074340527577</v>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.78657074340527577</v>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.78657074340527577</v>
+        <f>F2</f>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.78657074340527577</v>
+        <f>'Technologies to power CCS'!B19</f>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.78657074340527577</v>
+        <f>'Technologies to power CCS'!C19</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>$I2</f>
-        <v>0.78657074340527577</v>
+        <f>'Technologies to power CCS'!D19</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>Data!O27</f>
-        <v>0.78657074340527577</v>
+        <f>'Technologies to power CCS'!E19</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.77476760164901781</v>
+        <f>'Technologies to power CCS'!F19</f>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
-        <v>0.76296445989275996</v>
+        <f>'Technologies to power CCS'!G19</f>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
-        <v>0.751161318136502</v>
+        <f>'Technologies to power CCS'!H19</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>0.73935817638024415</v>
+        <f>'Technologies to power CCS'!I19</f>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
-        <v>0.72755503462398619</v>
+        <f>'Technologies to power CCS'!J19</f>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>0.71575189286772822</v>
+        <f>'Technologies to power CCS'!K19</f>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>0.70394875111147037</v>
+        <f>'Technologies to power CCS'!L19</f>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>0.69214560935521241</v>
+        <f>'Technologies to power CCS'!M19</f>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" si="1"/>
-        <v>0.68034246759895456</v>
+        <f>'Technologies to power CCS'!N19</f>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>Data!P27</f>
-        <v>0.6685393258426966</v>
+        <f>'Technologies to power CCS'!O19</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.65956088896232645</v>
+        <f>S2</f>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AL3" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.65058245208195631</v>
+        <f t="shared" ref="U2:AM14" si="1">T2</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="2"/>
-        <v>0.64160401520158628</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="2"/>
-        <v>0.63262557832121613</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" si="2"/>
-        <v>0.62364714144084599</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="2"/>
-        <v>0.61466870456047584</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="2"/>
-        <v>0.6056902676801057</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="2"/>
-        <v>0.59671183079973555</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="2"/>
-        <v>0.58773339391936541</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="2"/>
-        <v>0.57875495703899538</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
-        <v>0.56977652015862523</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
-        <v>0.56079808327825509</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
-        <v>0.55181964639788494</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>0.5428412095175148</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>0.53386277263714477</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>0.52488433575677462</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>0.51590589887640448</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="2"/>
-        <v>0.50692746199603433</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="2"/>
-        <v>0.49794902511566419</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <f>Data!Q27</f>
-        <v>0.4889705882352941</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>8.6330935251798566E-2</v>
+        <v>0.3335464691512724</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>8.6330935251798566E-2</v>
+        <v>0.3335464691512724</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>8.6330935251798566E-2</v>
+        <v>0.3335464691512724</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>8.6330935251798566E-2</v>
+        <f t="shared" ref="E3:E14" si="2">F3</f>
+        <v>0.3335464691512724</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>8.6330935251798566E-2</v>
+        <f>'Technologies to power CCS'!B20</f>
+        <v>0.3335464691512724</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>8.6330935251798566E-2</v>
+        <f>'Technologies to power CCS'!C20</f>
+        <v>0.30616347531420662</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="3">$I3</f>
-        <v>8.6330935251798566E-2</v>
+        <f>'Technologies to power CCS'!D20</f>
+        <v>0.28003302126930857</v>
       </c>
       <c r="I3">
-        <f>Data!O28</f>
-        <v>8.6330935251798566E-2</v>
+        <f>'Technologies to power CCS'!E20</f>
+        <v>0.25791944378357839</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3" si="4">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>9.1461886670438933E-2</v>
+        <f>'Technologies to power CCS'!F20</f>
+        <v>0.24105755214185653</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>9.65928380890793E-2</v>
+        <f>'Technologies to power CCS'!G20</f>
+        <v>0.22761293681353043</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.10172378950771967</v>
+        <f>'Technologies to power CCS'!H20</f>
+        <v>0.21576323530147837</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0.10685474092636005</v>
+        <f>'Technologies to power CCS'!I20</f>
+        <v>0.20459795910285011</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0.11198569234500041</v>
+        <f>'Technologies to power CCS'!J20</f>
+        <v>0.19296502094063003</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.11711664376364078</v>
+        <f>'Technologies to power CCS'!K20</f>
+        <v>0.1865838936388145</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0.12224759518228115</v>
+        <f>'Technologies to power CCS'!L20</f>
+        <v>0.18044668164628119</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0.12737854660092152</v>
+        <f>'Technologies to power CCS'!M20</f>
+        <v>0.17592139040828728</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0.13250949801956188</v>
+        <f>'Technologies to power CCS'!N20</f>
+        <v>0.1707093578327098</v>
       </c>
       <c r="S3">
-        <f>Data!P28</f>
-        <v>0.13764044943820225</v>
+        <f>'Technologies to power CCS'!O20</f>
+        <v>0.16286864789752623</v>
       </c>
       <c r="T3">
-        <f>$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.14068489755452743</v>
+        <f t="shared" ref="T3:AI14" si="3">S3</f>
+        <v>0.16286864789752623</v>
       </c>
       <c r="U3">
-        <f t="shared" si="2"/>
-        <v>0.1437293456708526</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
-        <v>0.14677379378717781</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
-        <v>0.14981824190350299</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="X3">
-        <f t="shared" si="2"/>
-        <v>0.15286269001982816</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
-        <v>0.15590713813615334</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="2"/>
-        <v>0.15895158625247852</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="2"/>
-        <v>0.16199603436880369</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="2"/>
-        <v>0.16504048248512887</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="2"/>
-        <v>0.16808493060145407</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="2"/>
-        <v>0.17112937871777925</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="2"/>
-        <v>0.17417382683410443</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="2"/>
-        <v>0.17721827495042961</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="2"/>
-        <v>0.18026272306675478</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="2"/>
-        <v>0.18330717118307996</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="2"/>
-        <v>0.18635161929940514</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>0.18939606741573034</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>0.19244051553205552</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>0.19548496364838069</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AM3">
-        <f>Data!Q28</f>
-        <v>0.19852941176470587</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B21</f>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C21</f>
+        <v>2.3627823761908948E-2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D21</f>
+        <v>2.2271673465437025E-2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E21</f>
+        <v>2.1243390846433275E-2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F21</f>
+        <v>2.0604460654779281E-2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G21</f>
+        <v>2.0224335461973515E-2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H21</f>
+        <v>1.9962860570305472E-2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I21</f>
+        <v>1.9743963776055761E-2</v>
       </c>
       <c r="N4">
+        <f>'Technologies to power CCS'!J21</f>
         <v>0</v>
       </c>
       <c r="O4">
+        <f>'Technologies to power CCS'!K21</f>
         <v>0</v>
       </c>
       <c r="P4">
+        <f>'Technologies to power CCS'!L21</f>
         <v>0</v>
       </c>
       <c r="Q4">
+        <f>'Technologies to power CCS'!M21</f>
         <v>0</v>
       </c>
       <c r="R4">
+        <f>'Technologies to power CCS'!N21</f>
         <v>0</v>
       </c>
       <c r="S4">
+        <f>'Technologies to power CCS'!O21</f>
         <v>0</v>
       </c>
       <c r="T4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B22</f>
+        <v>0.15011055526529507</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C22</f>
+        <v>0.13815315924639782</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D22</f>
+        <v>0.13022367535662133</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E22</f>
+        <v>0.12421125145143937</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F22</f>
+        <v>0.12047539217788203</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G22</f>
+        <v>0.11825277968405075</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H22</f>
+        <v>0.11672392189708072</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I22</f>
+        <v>0.11544402054098295</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J22</f>
+        <v>0.11369860119516798</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K22</f>
+        <v>0.11032899203363489</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L22</f>
+        <v>0.10759484910422214</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M22</f>
+        <v>0.10576827133280721</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N22</f>
+        <v>0.10354767722253042</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O22</f>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B23</f>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C23</f>
+        <v>0.10313105691313788</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D23</f>
+        <v>0.11442968042521866</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E23</f>
+        <v>0.12312822024238593</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F23</f>
+        <v>0.12713115819800086</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G23</f>
+        <v>0.12951857123056587</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H23</f>
+        <v>0.13076382759696545</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I23</f>
+        <v>0.13164017636730868</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J23</f>
+        <v>0.14106687512493682</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K23</f>
+        <v>0.14315486351991433</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L23</f>
+        <v>0.14445177533038972</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M23</f>
+        <v>0.14676179158994082</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N23</f>
+        <v>0.15008196784397632</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O23</f>
+        <v>0.15814289076082053</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B24</f>
+        <v>0.20936302787322997</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C24</f>
+        <v>0.253754730748458</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D24</f>
+        <v>0.28778669079043501</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E24</f>
+        <v>0.31689315630803538</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F24</f>
+        <v>0.33883704050029317</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G24</f>
+        <v>0.35529923226968935</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H24</f>
+        <v>0.36962158157910979</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I24</f>
+        <v>0.38302299639608717</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J24</f>
+        <v>0.4089192294628245</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K24</f>
+        <v>0.42083035340445213</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L24</f>
+        <v>0.4318519817230248</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M24</f>
+        <v>0.44571287754404737</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N24</f>
+        <v>0.4598258397929757</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O24</f>
+        <v>0.474699489310353</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B25</f>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C25</f>
+        <v>1.2332282439876422E-2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D25</f>
+        <v>1.1624454725587482E-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E25</f>
+        <v>1.1087753935309303E-2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F25</f>
+        <v>1.0754271357216599E-2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G25</f>
+        <v>1.0555869198497669E-2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H25</f>
+        <v>1.0419395257965539E-2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I25</f>
+        <v>1.0305144486541431E-2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J25</f>
+        <v>1.0149339114691595E-2</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K25</f>
+        <v>9.8485499606925375E-3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L25</f>
+        <v>9.6044858870192578E-3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M25</f>
+        <v>9.4414358844108204E-3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N25</f>
+        <v>9.2432138972942026E-3</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O25</f>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:H9" si="5">$I9</f>
-        <v>0.12709832134292565</v>
+        <f t="shared" si="0"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
+        <f t="shared" si="0"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
+        <f t="shared" si="0"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
+        <f t="shared" si="2"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
+        <f>'Technologies to power CCS'!B26</f>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
+        <f>'Technologies to power CCS'!C26</f>
+        <v>1.3072811809764917E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
+        <f>'Technologies to power CCS'!D26</f>
+        <v>1.2322480429686009E-2</v>
       </c>
       <c r="I9">
-        <f>Data!O29</f>
-        <v>0.12709832134292565</v>
+        <f>'Technologies to power CCS'!E26</f>
+        <v>1.1753551809727395E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:R9" si="6">$I9+($S9-$I9)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.13377051168054319</v>
+        <f>'Technologies to power CCS'!F26</f>
+        <v>1.1400044256969397E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
-        <v>0.14044270201816075</v>
+        <f>'Technologies to power CCS'!G26</f>
+        <v>1.118972843779897E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="6"/>
-        <v>0.14711489235577829</v>
+        <f>'Technologies to power CCS'!H26</f>
+        <v>1.1045059504840972E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
-        <v>0.15378708269339583</v>
+        <f>'Technologies to power CCS'!I26</f>
+        <v>1.0923948198703647E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
-        <v>0.16045927303101337</v>
+        <f>'Technologies to power CCS'!J26</f>
+        <v>1.0758787019897256E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
-        <v>0.16713146336863094</v>
+        <f>'Technologies to power CCS'!K26</f>
+        <v>1.043993606721931E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="6"/>
-        <v>0.17380365370624848</v>
+        <f>'Technologies to power CCS'!L26</f>
+        <v>1.0181216424670533E-2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>0.18047584404386602</v>
+        <f>'Technologies to power CCS'!M26</f>
+        <v>1.0008375589239333E-2</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
-        <v>0.18714803438148359</v>
+        <f>'Technologies to power CCS'!N26</f>
+        <v>9.7982507606225178E-3</v>
       </c>
       <c r="S9">
-        <f>Data!P29</f>
-        <v>0.19382022471910113</v>
+        <f>'Technologies to power CCS'!O26</f>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="T9">
-        <f>$S9+($AM9-$S9)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.19975421348314606</v>
+        <f t="shared" si="3"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="U9">
-        <f t="shared" ref="U9:AL9" si="7">$S9+($AM9-$S9)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.205688202247191</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="V9">
-        <f t="shared" si="7"/>
-        <v>0.21162219101123597</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="W9">
-        <f t="shared" si="7"/>
-        <v>0.21755617977528091</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="X9">
-        <f t="shared" si="7"/>
-        <v>0.22349016853932585</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>0.22942415730337079</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>0.23535814606741573</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="7"/>
-        <v>0.24129213483146067</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="7"/>
-        <v>0.24722612359550561</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="7"/>
-        <v>0.25316011235955055</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="7"/>
-        <v>0.25909410112359549</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="7"/>
-        <v>0.26502808988764048</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="7"/>
-        <v>0.27096207865168542</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="7"/>
-        <v>0.27689606741573036</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
-        <v>0.2828300561797753</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="7"/>
-        <v>0.28876404494382024</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="7"/>
-        <v>0.29469803370786518</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="7"/>
-        <v>0.30063202247191012</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="7"/>
-        <v>0.30656601123595506</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AM9">
-        <f>Data!Q29</f>
-        <v>0.3125</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B27</f>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C27</f>
+        <v>2.6896026714350176E-2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D27</f>
+        <v>2.5445363666738333E-2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E27</f>
+        <v>2.4359324898709948E-2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F27</f>
+        <v>2.3626677825622375E-2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G27</f>
+        <v>2.3190796701903604E-2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H27</f>
+        <v>2.2890969245682499E-2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I27</f>
+        <v>2.2639965148974931E-2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J27</f>
+        <v>2.2297667358457757E-2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K27</f>
+        <v>2.1636846350792893E-2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L27</f>
+        <v>2.1100647937534699E-2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M27</f>
+        <v>2.0742434000659161E-2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N27</f>
+        <v>2.0306948706305276E-2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O27</f>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B28</f>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C28</f>
+        <v>3.5051723508055482E-3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D28</f>
+        <v>3.3039883327330316E-3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E28</f>
+        <v>3.1514432722456387E-3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F28</f>
+        <v>3.0566583921632444E-3</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G28</f>
+        <v>3.000267066026159E-3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H28</f>
+        <v>2.9614774352103817E-3</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I28</f>
+        <v>2.9290042375678207E-3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J28</f>
+        <v>2.8847200846401251E-3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K28</f>
+        <v>2.7992275708933951E-3</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L28</f>
+        <v>2.729857878216042E-3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M28</f>
+        <v>2.6835146028549571E-3</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N28</f>
+        <v>2.6271744864206901E-3</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O28</f>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B29</f>
+        <v>0.12953365096291972</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C29</f>
+        <v>0.11921535482711602</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D29</f>
+        <v>0.11237283135047499</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E29</f>
+        <v>0.10603053082732931</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F29</f>
+        <v>0.10284148686196562</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G29</f>
+        <v>0.10094419672286321</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H29</f>
+        <v>9.9639116862402247E-2</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I29</f>
+        <v>9.854655384087338E-2</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J29</f>
+        <v>9.7056610397018739E-2</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K29</f>
+        <v>9.4180208751410463E-2</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L29</f>
+        <v>9.1846260556091283E-2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M29</f>
+        <v>8.2770929146143452E-2</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N29</f>
+        <v>7.3674557169388963E-2</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O29</f>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
+        <f>'Technologies to power CCS'!B30</f>
         <v>0</v>
       </c>
       <c r="G13">
+        <f>'Technologies to power CCS'!C30</f>
         <v>0</v>
       </c>
       <c r="H13">
+        <f>'Technologies to power CCS'!D30</f>
         <v>0</v>
       </c>
       <c r="I13">
+        <f>'Technologies to power CCS'!E30</f>
         <v>0</v>
       </c>
       <c r="J13">
+        <f>'Technologies to power CCS'!F30</f>
         <v>0</v>
       </c>
       <c r="K13">
+        <f>'Technologies to power CCS'!G30</f>
         <v>0</v>
       </c>
       <c r="L13">
+        <f>'Technologies to power CCS'!H30</f>
         <v>0</v>
       </c>
       <c r="M13">
+        <f>'Technologies to power CCS'!I30</f>
         <v>0</v>
       </c>
       <c r="N13">
+        <f>'Technologies to power CCS'!J30</f>
         <v>0</v>
       </c>
       <c r="O13">
+        <f>'Technologies to power CCS'!K30</f>
         <v>0</v>
       </c>
       <c r="P13">
+        <f>'Technologies to power CCS'!L30</f>
         <v>0</v>
       </c>
       <c r="Q13">
+        <f>'Technologies to power CCS'!M30</f>
         <v>0</v>
       </c>
       <c r="R13">
+        <f>'Technologies to power CCS'!N30</f>
         <v>0</v>
       </c>
       <c r="S13">
+        <f>'Technologies to power CCS'!O30</f>
         <v>0</v>
       </c>
       <c r="T13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B31</f>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C31</f>
+        <v>1.481058739776992E-4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D31</f>
+        <v>1.861401877596074E-4</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E31</f>
+        <v>2.2193262480603088E-4</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F31</f>
+        <v>2.1525763325093273E-4</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G31</f>
+        <v>2.1128641310043373E-4</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H31</f>
+        <v>2.0855474895847758E-4</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I31</f>
+        <v>2.0626790405407189E-4</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J31</f>
+        <v>2.0314930173522008E-4</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K31</f>
+        <v>1.9712870217559122E-4</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L31</f>
+        <v>1.9224351255042548E-4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M31</f>
+        <v>1.88979901609504E-4</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N31</f>
+        <v>1.8501228777610494E-4</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O31</f>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3767,16 +5141,18 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AM3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -3895,1272 +5271,968 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G9" si="0">$I2</f>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
-        <f>$I2</f>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
-        <f>Data!O9</f>
-        <v>1.8867924528301886E-2</v>
+        <v>0.75</v>
       </c>
       <c r="J2">
-        <f>$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>2.7850697292863002E-2</v>
+        <v>0.75</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
-        <v>3.6833470057424114E-2</v>
+        <v>0.75</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
-        <v>4.5816242821985237E-2</v>
+        <v>0.75</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>5.4799015586546346E-2</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
-        <v>6.3781788351107468E-2</v>
+        <v>0.75</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>7.2764561115668577E-2</v>
+        <v>0.75</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>8.17473338802297E-2</v>
+        <v>0.75</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>9.0730106644790809E-2</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <f t="shared" si="1"/>
-        <v>9.9712879409351918E-2</v>
+        <v>0.75</v>
       </c>
       <c r="S2">
-        <f>Data!P9</f>
-        <v>0.10869565217391304</v>
+        <v>0.75</v>
       </c>
       <c r="T2">
-        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.11229701414353065</v>
+        <v>0.75</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AL9" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.11589837611314824</v>
+        <v>0.75</v>
       </c>
       <c r="V2">
-        <f t="shared" si="2"/>
-        <v>0.11949973808276584</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
-        <f t="shared" si="2"/>
-        <v>0.12310110005238345</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
-        <f t="shared" si="2"/>
-        <v>0.12670246202200106</v>
+        <v>0.75</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="2"/>
-        <v>0.13030382399161866</v>
+        <v>0.75</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="2"/>
-        <v>0.13390518596123624</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="2"/>
-        <v>0.13750654793085385</v>
+        <v>0.75</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="2"/>
-        <v>0.14110790990047145</v>
+        <v>0.75</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="2"/>
-        <v>0.14470927187008906</v>
+        <v>0.75</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
-        <v>0.14831063383970666</v>
+        <v>0.75</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
-        <v>0.15191199580932424</v>
+        <v>0.75</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
-        <v>0.15551335777894185</v>
+        <v>0.75</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>0.15911471974855945</v>
+        <v>0.75</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>0.16271608171817706</v>
+        <v>0.75</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>0.16631744368779466</v>
+        <v>0.75</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>0.16991880565741224</v>
+        <v>0.75</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="2"/>
-        <v>0.17352016762702988</v>
+        <v>0.75</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="2"/>
-        <v>0.17712152959664745</v>
+        <v>0.75</v>
       </c>
       <c r="AM2">
-        <f>Data!Q9</f>
-        <v>0.18072289156626506</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="3">$I3</f>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="I3">
-        <f>Data!O10</f>
-        <v>0.68679245283018864</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.65072190319934364</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.61465135356849876</v>
+        <v>0.25</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.57858080393765376</v>
+        <v>0.25</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0.54251025430680877</v>
+        <v>0.25</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0.50643970467596389</v>
+        <v>0.25</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.47036915504511889</v>
+        <v>0.25</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0.43429860541427395</v>
+        <v>0.25</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0.39822805578342901</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0.36215750615258407</v>
+        <v>0.25</v>
       </c>
       <c r="S3">
-        <f>Data!P10</f>
-        <v>0.32608695652173914</v>
+        <v>0.25</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:AI9" si="5">$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.32002357255107389</v>
+        <v>0.25</v>
       </c>
       <c r="U3">
-        <f t="shared" si="5"/>
-        <v>0.31396018858040858</v>
+        <v>0.25</v>
       </c>
       <c r="V3">
-        <f t="shared" si="5"/>
-        <v>0.30789680460974334</v>
+        <v>0.25</v>
       </c>
       <c r="W3">
-        <f t="shared" si="5"/>
-        <v>0.30183342063907803</v>
+        <v>0.25</v>
       </c>
       <c r="X3">
-        <f t="shared" si="5"/>
-        <v>0.29577003666841278</v>
+        <v>0.25</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="5"/>
-        <v>0.28970665269774754</v>
+        <v>0.25</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="5"/>
-        <v>0.28364326872708223</v>
+        <v>0.25</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="5"/>
-        <v>0.27757988475641698</v>
+        <v>0.25</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="5"/>
-        <v>0.27151650078575168</v>
+        <v>0.25</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="5"/>
-        <v>0.26545311681508643</v>
+        <v>0.25</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="5"/>
-        <v>0.25938973284442113</v>
+        <v>0.25</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="5"/>
-        <v>0.25332634887375588</v>
+        <v>0.25</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="5"/>
-        <v>0.24726296490309063</v>
+        <v>0.25</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="5"/>
-        <v>0.24119958093242533</v>
+        <v>0.25</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="5"/>
-        <v>0.23513619696176008</v>
+        <v>0.25</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="5"/>
-        <v>0.2290728129910948</v>
+        <v>0.25</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>0.22300942902042953</v>
+        <v>0.25</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>0.21694604504976428</v>
+        <v>0.25</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>0.21088266107909898</v>
+        <v>0.25</v>
       </c>
       <c r="AM3">
-        <f>Data!Q10</f>
-        <v>0.20481927710843373</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f>Data!O11</f>
-        <v>0.12075471698113208</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0.14237489745693191</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.16399507793273174</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
-        <v>0.1856152584085316</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>0.20723543888433144</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.22885561936013127</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0.2504757998359311</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
-        <v>0.27209598031173093</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>0.29371616078753077</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
-        <v>0.3153363412633306</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <f>Data!P11</f>
-        <v>0.33695652173913043</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="5"/>
-        <v>0.3411930330015715</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
-        <v>0.34542954426401257</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
-        <v>0.34966605552645363</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
-        <v>0.3539025667888947</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
-        <v>0.35813907805133577</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
-        <v>0.36237558931377684</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="2"/>
-        <v>0.3666121005762179</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="2"/>
-        <v>0.37084861183865897</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
-        <v>0.37508512310110004</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="2"/>
-        <v>0.37932163436354116</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
-        <v>0.38355814562598223</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="2"/>
-        <v>0.38779465688842329</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="2"/>
-        <v>0.39203116815086436</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="2"/>
-        <v>0.39626767941330543</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="2"/>
-        <v>0.4005041906757465</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="2"/>
-        <v>0.40474070193818756</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="2"/>
-        <v>0.40897721320062863</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="2"/>
-        <v>0.4132137244630697</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="2"/>
-        <v>0.41745023572551077</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <f>Data!Q11</f>
-        <v>0.42168674698795183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>Data!O12</f>
-        <v>0.17358490566037735</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0.17905250205086135</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>0.18452009844134534</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>0.18998769483182937</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.19545529122231337</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.20092288761279736</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0.20639048400328136</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
-        <v>0.21185808039376536</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0.21732567678424936</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
-        <v>0.22279327317473338</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>Data!P12</f>
-        <v>0.22826086956521738</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="5"/>
-        <v>0.22648638030382398</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
-        <v>0.22471189104243058</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
-        <v>0.22293740178103719</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
-        <v>0.22116291251964379</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
-        <v>0.21938842325825039</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
-        <v>0.217613933996857</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="2"/>
-        <v>0.2158394447354636</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="2"/>
-        <v>0.2140649554740702</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
-        <v>0.2122904662126768</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
-        <v>0.21051597695128338</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="2"/>
-        <v>0.20874148768988998</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="2"/>
-        <v>0.20696699842849658</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="2"/>
-        <v>0.20519250916710319</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="2"/>
-        <v>0.20341801990570979</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="2"/>
-        <v>0.20164353064431639</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="2"/>
-        <v>0.199869041382923</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="2"/>
-        <v>0.1980945521215296</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="2"/>
-        <v>0.1963200628601362</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="2"/>
-        <v>0.1945455735987428</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <f>Data!Q12</f>
-        <v>0.19277108433734941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>Data!O13</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>Data!P13</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>Data!Q13</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>Data!O14</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>Data!P14</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM7">
-        <f>Data!Q14</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>Data!O15</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>Data!P15</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>Data!Q15</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>Data!O15</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>Data!P15</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>Data!Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-california\InputData\ccs\CPbE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="18960" windowHeight="7163"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="CPbE-FoESCbES" sheetId="5" r:id="rId4"/>
     <sheet name="CPbE-PoICbI" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -236,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -308,6 +313,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -355,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2507,7 +2515,7 @@
   <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2639,156 +2647,118 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <f>About!$I$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -2796,156 +2766,155 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>About!$I$23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>$B$3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:AM3" si="0">$B$3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +2930,7 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B14" sqref="B14:AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3093,155 +3062,117 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:D14" si="0">C2</f>
-        <v>5.9005721409314106E-4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
-        <v>5.9005721409314106E-4</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>5.9005721409314106E-4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>F2</f>
-        <v>5.9005721409314106E-4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>'Technologies to power CCS'!B19</f>
-        <v>5.9005721409314106E-4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>'Technologies to power CCS'!C19</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>'Technologies to power CCS'!D19</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>'Technologies to power CCS'!E19</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>'Technologies to power CCS'!F19</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>'Technologies to power CCS'!G19</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>'Technologies to power CCS'!H19</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>'Technologies to power CCS'!I19</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>'Technologies to power CCS'!J19</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>'Technologies to power CCS'!K19</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>'Technologies to power CCS'!L19</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>'Technologies to power CCS'!M19</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>'Technologies to power CCS'!N19</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>'Technologies to power CCS'!O19</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>S2</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AM14" si="1">T2</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3250,156 +3181,118 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.3335464691512724</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.3335464691512724</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.3335464691512724</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E14" si="2">F3</f>
-        <v>0.3335464691512724</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>'Technologies to power CCS'!B20</f>
-        <v>0.3335464691512724</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>'Technologies to power CCS'!C20</f>
-        <v>0.30616347531420662</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>'Technologies to power CCS'!D20</f>
-        <v>0.28003302126930857</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>'Technologies to power CCS'!E20</f>
-        <v>0.25791944378357839</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>'Technologies to power CCS'!F20</f>
-        <v>0.24105755214185653</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>'Technologies to power CCS'!G20</f>
-        <v>0.22761293681353043</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>'Technologies to power CCS'!H20</f>
-        <v>0.21576323530147837</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f>'Technologies to power CCS'!I20</f>
-        <v>0.20459795910285011</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f>'Technologies to power CCS'!J20</f>
-        <v>0.19296502094063003</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f>'Technologies to power CCS'!K20</f>
-        <v>0.1865838936388145</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <f>'Technologies to power CCS'!L20</f>
-        <v>0.18044668164628119</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f>'Technologies to power CCS'!M20</f>
-        <v>0.17592139040828728</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <f>'Technologies to power CCS'!N20</f>
-        <v>0.1707093578327098</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <f>'Technologies to power CCS'!O20</f>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:AI14" si="3">S3</f>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="3"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="1"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="1"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="1"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <f t="shared" si="1"/>
-        <v>0.16286864789752623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -3407,155 +3300,117 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>2.5672852969543393E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2.5672852969543393E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2.5672852969543393E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>2.5672852969543393E-2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>'Technologies to power CCS'!B21</f>
-        <v>2.5672852969543393E-2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f>'Technologies to power CCS'!C21</f>
-        <v>2.3627823761908948E-2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f>'Technologies to power CCS'!D21</f>
-        <v>2.2271673465437025E-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f>'Technologies to power CCS'!E21</f>
-        <v>2.1243390846433275E-2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f>'Technologies to power CCS'!F21</f>
-        <v>2.0604460654779281E-2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f>'Technologies to power CCS'!G21</f>
-        <v>2.0224335461973515E-2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <f>'Technologies to power CCS'!H21</f>
-        <v>1.9962860570305472E-2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <f>'Technologies to power CCS'!I21</f>
-        <v>1.9743963776055761E-2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f>'Technologies to power CCS'!J21</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>'Technologies to power CCS'!K21</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>'Technologies to power CCS'!L21</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>'Technologies to power CCS'!M21</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>'Technologies to power CCS'!N21</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>'Technologies to power CCS'!O21</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3564,156 +3419,118 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.15011055526529507</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.15011055526529507</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.15011055526529507</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0.15011055526529507</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>'Technologies to power CCS'!B22</f>
-        <v>0.15011055526529507</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>'Technologies to power CCS'!C22</f>
-        <v>0.13815315924639782</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>'Technologies to power CCS'!D22</f>
-        <v>0.13022367535662133</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>'Technologies to power CCS'!E22</f>
-        <v>0.12421125145143937</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>'Technologies to power CCS'!F22</f>
-        <v>0.12047539217788203</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>'Technologies to power CCS'!G22</f>
-        <v>0.11825277968405075</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f>'Technologies to power CCS'!H22</f>
-        <v>0.11672392189708072</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>'Technologies to power CCS'!I22</f>
-        <v>0.11544402054098295</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>'Technologies to power CCS'!J22</f>
-        <v>0.11369860119516798</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f>'Technologies to power CCS'!K22</f>
-        <v>0.11032899203363489</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f>'Technologies to power CCS'!L22</f>
-        <v>0.10759484910422214</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>'Technologies to power CCS'!M22</f>
-        <v>0.10576827133280721</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f>'Technologies to power CCS'!N22</f>
-        <v>0.10354767722253042</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>'Technologies to power CCS'!O22</f>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="1"/>
-        <v>9.9717680375187051E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -3721,156 +3538,118 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>9.0546961580838373E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>9.0546961580838373E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>9.0546961580838373E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>9.0546961580838373E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'Technologies to power CCS'!B23</f>
-        <v>9.0546961580838373E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>'Technologies to power CCS'!C23</f>
-        <v>0.10313105691313788</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f>'Technologies to power CCS'!D23</f>
-        <v>0.11442968042521866</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>'Technologies to power CCS'!E23</f>
-        <v>0.12312822024238593</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>'Technologies to power CCS'!F23</f>
-        <v>0.12713115819800086</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>'Technologies to power CCS'!G23</f>
-        <v>0.12951857123056587</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>'Technologies to power CCS'!H23</f>
-        <v>0.13076382759696545</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>'Technologies to power CCS'!I23</f>
-        <v>0.13164017636730868</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>'Technologies to power CCS'!J23</f>
-        <v>0.14106687512493682</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f>'Technologies to power CCS'!K23</f>
-        <v>0.14315486351991433</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f>'Technologies to power CCS'!L23</f>
-        <v>0.14445177533038972</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>'Technologies to power CCS'!M23</f>
-        <v>0.14676179158994082</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f>'Technologies to power CCS'!N23</f>
-        <v>0.15008196784397632</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f>'Technologies to power CCS'!O23</f>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="1"/>
-        <v>0.15814289076082053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -3878,156 +3657,118 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.20936302787322997</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.20936302787322997</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.20936302787322997</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0.20936302787322997</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'Technologies to power CCS'!B24</f>
-        <v>0.20936302787322997</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>'Technologies to power CCS'!C24</f>
-        <v>0.253754730748458</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>'Technologies to power CCS'!D24</f>
-        <v>0.28778669079043501</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>'Technologies to power CCS'!E24</f>
-        <v>0.31689315630803538</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>'Technologies to power CCS'!F24</f>
-        <v>0.33883704050029317</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>'Technologies to power CCS'!G24</f>
-        <v>0.35529923226968935</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>'Technologies to power CCS'!H24</f>
-        <v>0.36962158157910979</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>'Technologies to power CCS'!I24</f>
-        <v>0.38302299639608717</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>'Technologies to power CCS'!J24</f>
-        <v>0.4089192294628245</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>'Technologies to power CCS'!K24</f>
-        <v>0.42083035340445213</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>'Technologies to power CCS'!L24</f>
-        <v>0.4318519817230248</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>'Technologies to power CCS'!M24</f>
-        <v>0.44571287754404737</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>'Technologies to power CCS'!N24</f>
-        <v>0.4598258397929757</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>'Technologies to power CCS'!O24</f>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="1"/>
-        <v>0.474699489310353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -4035,156 +3776,118 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1.3399662916406058E-2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.3399662916406058E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.3399662916406058E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>1.3399662916406058E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>'Technologies to power CCS'!B25</f>
-        <v>1.3399662916406058E-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f>'Technologies to power CCS'!C25</f>
-        <v>1.2332282439876422E-2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>'Technologies to power CCS'!D25</f>
-        <v>1.1624454725587482E-2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f>'Technologies to power CCS'!E25</f>
-        <v>1.1087753935309303E-2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>'Technologies to power CCS'!F25</f>
-        <v>1.0754271357216599E-2</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <f>'Technologies to power CCS'!G25</f>
-        <v>1.0555869198497669E-2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>'Technologies to power CCS'!H25</f>
-        <v>1.0419395257965539E-2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f>'Technologies to power CCS'!I25</f>
-        <v>1.0305144486541431E-2</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f>'Technologies to power CCS'!J25</f>
-        <v>1.0149339114691595E-2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f>'Technologies to power CCS'!K25</f>
-        <v>9.8485499606925375E-3</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f>'Technologies to power CCS'!L25</f>
-        <v>9.6044858870192578E-3</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f>'Technologies to power CCS'!M25</f>
-        <v>9.4414358844108204E-3</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <f>'Technologies to power CCS'!N25</f>
-        <v>9.2432138972942026E-3</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f>'Technologies to power CCS'!O25</f>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="1"/>
-        <v>8.901328100958306E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -4192,156 +3895,118 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1.4204286390169431E-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.4204286390169431E-2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.4204286390169431E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>1.4204286390169431E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f>'Technologies to power CCS'!B26</f>
-        <v>1.4204286390169431E-2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f>'Technologies to power CCS'!C26</f>
-        <v>1.3072811809764917E-2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f>'Technologies to power CCS'!D26</f>
-        <v>1.2322480429686009E-2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f>'Technologies to power CCS'!E26</f>
-        <v>1.1753551809727395E-2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f>'Technologies to power CCS'!F26</f>
-        <v>1.1400044256969397E-2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <f>'Technologies to power CCS'!G26</f>
-        <v>1.118972843779897E-2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <f>'Technologies to power CCS'!H26</f>
-        <v>1.1045059504840972E-2</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <f>'Technologies to power CCS'!I26</f>
-        <v>1.0923948198703647E-2</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f>'Technologies to power CCS'!J26</f>
-        <v>1.0758787019897256E-2</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f>'Technologies to power CCS'!K26</f>
-        <v>1.043993606721931E-2</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <f>'Technologies to power CCS'!L26</f>
-        <v>1.0181216424670533E-2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f>'Technologies to power CCS'!M26</f>
-        <v>1.0008375589239333E-2</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <f>'Technologies to power CCS'!N26</f>
-        <v>9.7982507606225178E-3</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <f>'Technologies to power CCS'!O26</f>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="1"/>
-        <v>9.4358353928493174E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -4349,156 +4014,118 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2.9116641437250634E-2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2.9116641437250634E-2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>2.9116641437250634E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>2.9116641437250634E-2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f>'Technologies to power CCS'!B27</f>
-        <v>2.9116641437250634E-2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f>'Technologies to power CCS'!C27</f>
-        <v>2.6896026714350176E-2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f>'Technologies to power CCS'!D27</f>
-        <v>2.5445363666738333E-2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f>'Technologies to power CCS'!E27</f>
-        <v>2.4359324898709948E-2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <f>'Technologies to power CCS'!F27</f>
-        <v>2.3626677825622375E-2</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <f>'Technologies to power CCS'!G27</f>
-        <v>2.3190796701903604E-2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <f>'Technologies to power CCS'!H27</f>
-        <v>2.2890969245682499E-2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <f>'Technologies to power CCS'!I27</f>
-        <v>2.2639965148974931E-2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f>'Technologies to power CCS'!J27</f>
-        <v>2.2297667358457757E-2</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f>'Technologies to power CCS'!K27</f>
-        <v>2.1636846350792893E-2</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <f>'Technologies to power CCS'!L27</f>
-        <v>2.1100647937534699E-2</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f>'Technologies to power CCS'!M27</f>
-        <v>2.0742434000659161E-2</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <f>'Technologies to power CCS'!N27</f>
-        <v>2.0306948706305276E-2</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <f>'Technologies to power CCS'!O27</f>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="1"/>
-        <v>1.9627107758237932E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -4506,156 +4133,118 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>3.8085511091466378E-3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>3.8085511091466378E-3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3.8085511091466378E-3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>3.8085511091466378E-3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <f>'Technologies to power CCS'!B28</f>
-        <v>3.8085511091466378E-3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <f>'Technologies to power CCS'!C28</f>
-        <v>3.5051723508055482E-3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f>'Technologies to power CCS'!D28</f>
-        <v>3.3039883327330316E-3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <f>'Technologies to power CCS'!E28</f>
-        <v>3.1514432722456387E-3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <f>'Technologies to power CCS'!F28</f>
-        <v>3.0566583921632444E-3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <f>'Technologies to power CCS'!G28</f>
-        <v>3.000267066026159E-3</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <f>'Technologies to power CCS'!H28</f>
-        <v>2.9614774352103817E-3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f>'Technologies to power CCS'!I28</f>
-        <v>2.9290042375678207E-3</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f>'Technologies to power CCS'!J28</f>
-        <v>2.8847200846401251E-3</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f>'Technologies to power CCS'!K28</f>
-        <v>2.7992275708933951E-3</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <f>'Technologies to power CCS'!L28</f>
-        <v>2.729857878216042E-3</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <f>'Technologies to power CCS'!M28</f>
-        <v>2.6835146028549571E-3</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <f>'Technologies to power CCS'!N28</f>
-        <v>2.6271744864206901E-3</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <f>'Technologies to power CCS'!O28</f>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="1"/>
-        <v>2.5300011816174529E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -4663,156 +4252,118 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.12953365096291972</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.12953365096291972</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.12953365096291972</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.12953365096291972</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f>'Technologies to power CCS'!B29</f>
-        <v>0.12953365096291972</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <f>'Technologies to power CCS'!C29</f>
-        <v>0.11921535482711602</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <f>'Technologies to power CCS'!D29</f>
-        <v>0.11237283135047499</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <f>'Technologies to power CCS'!E29</f>
-        <v>0.10603053082732931</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <f>'Technologies to power CCS'!F29</f>
-        <v>0.10284148686196562</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <f>'Technologies to power CCS'!G29</f>
-        <v>0.10094419672286321</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <f>'Technologies to power CCS'!H29</f>
-        <v>9.9639116862402247E-2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <f>'Technologies to power CCS'!I29</f>
-        <v>9.854655384087338E-2</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <f>'Technologies to power CCS'!J29</f>
-        <v>9.7056610397018739E-2</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <f>'Technologies to power CCS'!K29</f>
-        <v>9.4180208751410463E-2</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <f>'Technologies to power CCS'!L29</f>
-        <v>9.1846260556091283E-2</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <f>'Technologies to power CCS'!M29</f>
-        <v>8.2770929146143452E-2</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <f>'Technologies to power CCS'!N29</f>
-        <v>7.3674557169388963E-2</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <f>'Technologies to power CCS'!O29</f>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="1"/>
-        <v>6.3863216305693693E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -4820,155 +4371,155 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B2:D14" si="0">C13</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C13:C14" si="1">D13</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D13:D14" si="2">E13</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E13:E14" si="3">F13</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>'Technologies to power CCS'!B30</f>
+        <f t="shared" ref="F13:F14" si="4">G13</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>'Technologies to power CCS'!C30</f>
+        <f t="shared" ref="G13:G14" si="5">H13</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>'Technologies to power CCS'!D30</f>
+        <f t="shared" ref="H13:H14" si="6">I13</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>'Technologies to power CCS'!E30</f>
+        <f t="shared" ref="I13:I14" si="7">J13</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>'Technologies to power CCS'!F30</f>
+        <f t="shared" ref="J13:J14" si="8">K13</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>'Technologies to power CCS'!G30</f>
+        <f t="shared" ref="K13:K14" si="9">L13</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>'Technologies to power CCS'!H30</f>
+        <f t="shared" ref="L13:L14" si="10">M13</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>'Technologies to power CCS'!I30</f>
+        <f t="shared" ref="M13:M14" si="11">N13</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>'Technologies to power CCS'!J30</f>
+        <f t="shared" ref="N13:N14" si="12">O13</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>'Technologies to power CCS'!K30</f>
+        <f t="shared" ref="O13:O14" si="13">P13</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>'Technologies to power CCS'!L30</f>
+        <f t="shared" ref="P13:P14" si="14">Q13</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>'Technologies to power CCS'!M30</f>
+        <f t="shared" ref="Q13:Q14" si="15">R13</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>'Technologies to power CCS'!N30</f>
+        <f t="shared" ref="R13:R14" si="16">S13</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>'Technologies to power CCS'!O30</f>
+        <f t="shared" ref="S13:S14" si="17">T13</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T13:T14" si="18">U13</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U13:U14" si="19">V13</f>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V13:V14" si="20">W13</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="W13:W14" si="21">X13</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="X13:X14" si="22">Y13</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Y13:Y14" si="23">Z13</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Z13:Z14" si="24">AA13</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA13:AA14" si="25">AB13</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AB13:AB14" si="26">AC13</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC13:AC14" si="27">AD13</f>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AD13:AD14" si="28">AE13</f>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AE13:AE14" si="29">AF13</f>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AF13:AF14" si="30">AG13</f>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AG13:AG14" si="31">AH13</f>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AH13:AH14" si="32">AI13</f>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AI13:AI14" si="33">AJ13</f>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AJ13:AJ14" si="34">AK13</f>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AK13:AK14" si="35">AL13</f>
         <v>0</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AL13:AL14" si="36">AM13</f>
         <v>0</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AM13:AM14" si="37">AN13</f>
         <v>0</v>
       </c>
     </row>
@@ -4977,156 +4528,118 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1.0728312983511656E-4</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.0728312983511656E-4</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1.0728312983511656E-4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1.0728312983511656E-4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f>'Technologies to power CCS'!B31</f>
-        <v>1.0728312983511656E-4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f>'Technologies to power CCS'!C31</f>
-        <v>1.481058739776992E-4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f>'Technologies to power CCS'!D31</f>
-        <v>1.861401877596074E-4</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f>'Technologies to power CCS'!E31</f>
-        <v>2.2193262480603088E-4</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <f>'Technologies to power CCS'!F31</f>
-        <v>2.1525763325093273E-4</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f>'Technologies to power CCS'!G31</f>
-        <v>2.1128641310043373E-4</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <f>'Technologies to power CCS'!H31</f>
-        <v>2.0855474895847758E-4</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <f>'Technologies to power CCS'!I31</f>
-        <v>2.0626790405407189E-4</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <f>'Technologies to power CCS'!J31</f>
-        <v>2.0314930173522008E-4</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <f>'Technologies to power CCS'!K31</f>
-        <v>1.9712870217559122E-4</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <f>'Technologies to power CCS'!L31</f>
-        <v>1.9224351255042548E-4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <f>'Technologies to power CCS'!M31</f>
-        <v>1.88979901609504E-4</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <f>'Technologies to power CCS'!N31</f>
-        <v>1.8501228777610494E-4</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <f>'Technologies to power CCS'!O31</f>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="1"/>
-        <v>2.1380291675640448E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-california\InputData\ccs\CPbE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="18960" windowHeight="7163"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="CPbE-FoESCbES" sheetId="5" r:id="rId4"/>
     <sheet name="CPbE-PoICbI" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -241,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -313,9 +308,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -363,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2515,7 +2507,7 @@
   <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2647,118 +2639,156 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <f>About!$I$24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -2766,155 +2796,156 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>About!$I$23</f>
+        <v>1</v>
       </c>
       <c r="C3">
         <f>$B$3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:AM3" si="0">$B$3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +2961,7 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:AM14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3062,117 +3093,155 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f t="shared" ref="B2:D14" si="0">C2</f>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>F2</f>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B19</f>
+        <v>5.9005721409314106E-4</v>
       </c>
       <c r="G2">
+        <f>'Technologies to power CCS'!C19</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>'Technologies to power CCS'!D19</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>'Technologies to power CCS'!E19</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>'Technologies to power CCS'!F19</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>'Technologies to power CCS'!G19</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>'Technologies to power CCS'!H19</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>'Technologies to power CCS'!I19</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>'Technologies to power CCS'!J19</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>'Technologies to power CCS'!K19</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>'Technologies to power CCS'!L19</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>'Technologies to power CCS'!M19</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>'Technologies to power CCS'!N19</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>'Technologies to power CCS'!O19</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>S2</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f t="shared" ref="U2:AM14" si="1">T2</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3181,118 +3250,156 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3335464691512724</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3335464691512724</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3335464691512724</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f t="shared" ref="E3:E14" si="2">F3</f>
+        <v>0.3335464691512724</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B20</f>
+        <v>0.3335464691512724</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C20</f>
+        <v>0.30616347531420662</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D20</f>
+        <v>0.28003302126930857</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E20</f>
+        <v>0.25791944378357839</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F20</f>
+        <v>0.24105755214185653</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G20</f>
+        <v>0.22761293681353043</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H20</f>
+        <v>0.21576323530147837</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I20</f>
+        <v>0.20459795910285011</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J20</f>
+        <v>0.19296502094063003</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K20</f>
+        <v>0.1865838936388145</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L20</f>
+        <v>0.18044668164628119</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M20</f>
+        <v>0.17592139040828728</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N20</f>
+        <v>0.1707093578327098</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O20</f>
+        <v>0.16286864789752623</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <f t="shared" ref="T3:AI14" si="3">S3</f>
+        <v>0.16286864789752623</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16286864789752623</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -3300,117 +3407,155 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B21</f>
+        <v>2.5672852969543393E-2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C21</f>
+        <v>2.3627823761908948E-2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D21</f>
+        <v>2.2271673465437025E-2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E21</f>
+        <v>2.1243390846433275E-2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F21</f>
+        <v>2.0604460654779281E-2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G21</f>
+        <v>2.0224335461973515E-2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H21</f>
+        <v>1.9962860570305472E-2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I21</f>
+        <v>1.9743963776055761E-2</v>
       </c>
       <c r="N4">
+        <f>'Technologies to power CCS'!J21</f>
         <v>0</v>
       </c>
       <c r="O4">
+        <f>'Technologies to power CCS'!K21</f>
         <v>0</v>
       </c>
       <c r="P4">
+        <f>'Technologies to power CCS'!L21</f>
         <v>0</v>
       </c>
       <c r="Q4">
+        <f>'Technologies to power CCS'!M21</f>
         <v>0</v>
       </c>
       <c r="R4">
+        <f>'Technologies to power CCS'!N21</f>
         <v>0</v>
       </c>
       <c r="S4">
+        <f>'Technologies to power CCS'!O21</f>
         <v>0</v>
       </c>
       <c r="T4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3419,118 +3564,156 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.15011055526529507</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B22</f>
+        <v>0.15011055526529507</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C22</f>
+        <v>0.13815315924639782</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D22</f>
+        <v>0.13022367535662133</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E22</f>
+        <v>0.12421125145143937</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F22</f>
+        <v>0.12047539217788203</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G22</f>
+        <v>0.11825277968405075</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H22</f>
+        <v>0.11672392189708072</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I22</f>
+        <v>0.11544402054098295</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J22</f>
+        <v>0.11369860119516798</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K22</f>
+        <v>0.11032899203363489</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L22</f>
+        <v>0.10759484910422214</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M22</f>
+        <v>0.10576827133280721</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N22</f>
+        <v>0.10354767722253042</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O22</f>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.9717680375187051E-2</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -3538,118 +3721,156 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B23</f>
+        <v>9.0546961580838373E-2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C23</f>
+        <v>0.10313105691313788</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D23</f>
+        <v>0.11442968042521866</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E23</f>
+        <v>0.12312822024238593</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F23</f>
+        <v>0.12713115819800086</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G23</f>
+        <v>0.12951857123056587</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H23</f>
+        <v>0.13076382759696545</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I23</f>
+        <v>0.13164017636730868</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J23</f>
+        <v>0.14106687512493682</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K23</f>
+        <v>0.14315486351991433</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L23</f>
+        <v>0.14445177533038972</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M23</f>
+        <v>0.14676179158994082</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N23</f>
+        <v>0.15008196784397632</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O23</f>
+        <v>0.15814289076082053</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15814289076082053</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -3657,118 +3878,156 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.20936302787322997</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B24</f>
+        <v>0.20936302787322997</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C24</f>
+        <v>0.253754730748458</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D24</f>
+        <v>0.28778669079043501</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E24</f>
+        <v>0.31689315630803538</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F24</f>
+        <v>0.33883704050029317</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G24</f>
+        <v>0.35529923226968935</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H24</f>
+        <v>0.36962158157910979</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I24</f>
+        <v>0.38302299639608717</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J24</f>
+        <v>0.4089192294628245</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K24</f>
+        <v>0.42083035340445213</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L24</f>
+        <v>0.4318519817230248</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M24</f>
+        <v>0.44571287754404737</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N24</f>
+        <v>0.4598258397929757</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O24</f>
+        <v>0.474699489310353</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.474699489310353</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -3776,118 +4035,156 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B25</f>
+        <v>1.3399662916406058E-2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C25</f>
+        <v>1.2332282439876422E-2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D25</f>
+        <v>1.1624454725587482E-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E25</f>
+        <v>1.1087753935309303E-2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F25</f>
+        <v>1.0754271357216599E-2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G25</f>
+        <v>1.0555869198497669E-2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H25</f>
+        <v>1.0419395257965539E-2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I25</f>
+        <v>1.0305144486541431E-2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J25</f>
+        <v>1.0149339114691595E-2</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K25</f>
+        <v>9.8485499606925375E-3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L25</f>
+        <v>9.6044858870192578E-3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M25</f>
+        <v>9.4414358844108204E-3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N25</f>
+        <v>9.2432138972942026E-3</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O25</f>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.901328100958306E-3</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -3895,118 +4192,156 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B26</f>
+        <v>1.4204286390169431E-2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C26</f>
+        <v>1.3072811809764917E-2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D26</f>
+        <v>1.2322480429686009E-2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E26</f>
+        <v>1.1753551809727395E-2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F26</f>
+        <v>1.1400044256969397E-2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G26</f>
+        <v>1.118972843779897E-2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H26</f>
+        <v>1.1045059504840972E-2</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I26</f>
+        <v>1.0923948198703647E-2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J26</f>
+        <v>1.0758787019897256E-2</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K26</f>
+        <v>1.043993606721931E-2</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L26</f>
+        <v>1.0181216424670533E-2</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M26</f>
+        <v>1.0008375589239333E-2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N26</f>
+        <v>9.7982507606225178E-3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O26</f>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4358353928493174E-3</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -4014,118 +4349,156 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B27</f>
+        <v>2.9116641437250634E-2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C27</f>
+        <v>2.6896026714350176E-2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D27</f>
+        <v>2.5445363666738333E-2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E27</f>
+        <v>2.4359324898709948E-2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F27</f>
+        <v>2.3626677825622375E-2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G27</f>
+        <v>2.3190796701903604E-2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H27</f>
+        <v>2.2890969245682499E-2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I27</f>
+        <v>2.2639965148974931E-2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J27</f>
+        <v>2.2297667358457757E-2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K27</f>
+        <v>2.1636846350792893E-2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L27</f>
+        <v>2.1100647937534699E-2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M27</f>
+        <v>2.0742434000659161E-2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N27</f>
+        <v>2.0306948706305276E-2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O27</f>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9627107758237932E-2</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -4133,118 +4506,156 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B28</f>
+        <v>3.8085511091466378E-3</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C28</f>
+        <v>3.5051723508055482E-3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D28</f>
+        <v>3.3039883327330316E-3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E28</f>
+        <v>3.1514432722456387E-3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F28</f>
+        <v>3.0566583921632444E-3</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G28</f>
+        <v>3.000267066026159E-3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H28</f>
+        <v>2.9614774352103817E-3</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I28</f>
+        <v>2.9290042375678207E-3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J28</f>
+        <v>2.8847200846401251E-3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K28</f>
+        <v>2.7992275708933951E-3</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L28</f>
+        <v>2.729857878216042E-3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M28</f>
+        <v>2.6835146028549571E-3</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N28</f>
+        <v>2.6271744864206901E-3</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O28</f>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5300011816174529E-3</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -4252,118 +4663,156 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12953365096291972</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!B29</f>
+        <v>0.12953365096291972</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!C29</f>
+        <v>0.11921535482711602</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!D29</f>
+        <v>0.11237283135047499</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!E29</f>
+        <v>0.10603053082732931</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!F29</f>
+        <v>0.10284148686196562</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!G29</f>
+        <v>0.10094419672286321</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!H29</f>
+        <v>9.9639116862402247E-2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!I29</f>
+        <v>9.854655384087338E-2</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!J29</f>
+        <v>9.7056610397018739E-2</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!K29</f>
+        <v>9.4180208751410463E-2</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!L29</f>
+        <v>9.1846260556091283E-2</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!M29</f>
+        <v>8.2770929146143452E-2</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!N29</f>
+        <v>7.3674557169388963E-2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <f>'Technologies to power CCS'!O29</f>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6.3863216305693693E-2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -4371,155 +4820,155 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B2:D14" si="0">C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C14" si="1">D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D14" si="2">E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E14" si="3">F13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F14" si="4">G13</f>
+        <f>'Technologies to power CCS'!B30</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G14" si="5">H13</f>
+        <f>'Technologies to power CCS'!C30</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H14" si="6">I13</f>
+        <f>'Technologies to power CCS'!D30</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I14" si="7">J13</f>
+        <f>'Technologies to power CCS'!E30</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J14" si="8">K13</f>
+        <f>'Technologies to power CCS'!F30</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K14" si="9">L13</f>
+        <f>'Technologies to power CCS'!G30</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L14" si="10">M13</f>
+        <f>'Technologies to power CCS'!H30</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M14" si="11">N13</f>
+        <f>'Technologies to power CCS'!I30</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N14" si="12">O13</f>
+        <f>'Technologies to power CCS'!J30</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O14" si="13">P13</f>
+        <f>'Technologies to power CCS'!K30</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P14" si="14">Q13</f>
+        <f>'Technologies to power CCS'!L30</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:Q14" si="15">R13</f>
+        <f>'Technologies to power CCS'!M30</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R14" si="16">S13</f>
+        <f>'Technologies to power CCS'!N30</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S14" si="17">T13</f>
+        <f>'Technologies to power CCS'!O30</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T14" si="18">U13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U14" si="19">V13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13:V14" si="20">W13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:W14" si="21">X13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:X14" si="22">Y13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" ref="Y13:Y14" si="23">Z13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" ref="Z13:Z14" si="24">AA13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" ref="AA13:AA14" si="25">AB13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" ref="AB13:AB14" si="26">AC13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" ref="AC13:AC14" si="27">AD13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" ref="AD13:AD14" si="28">AE13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" ref="AE13:AE14" si="29">AF13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" ref="AF13:AF14" si="30">AG13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" ref="AG13:AG14" si="31">AH13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" ref="AH13:AH14" si="32">AI13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" ref="AI13:AI14" si="33">AJ13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" ref="AJ13:AJ14" si="34">AK13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" ref="AK13:AK14" si="35">AL13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL13">
-        <f t="shared" ref="AL13:AL14" si="36">AM13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM13">
-        <f t="shared" ref="AM13:AM14" si="37">AN13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4528,118 +4977,156 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!B31</f>
+        <v>1.0728312983511656E-4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!C31</f>
+        <v>1.481058739776992E-4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!D31</f>
+        <v>1.861401877596074E-4</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!E31</f>
+        <v>2.2193262480603088E-4</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!F31</f>
+        <v>2.1525763325093273E-4</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!G31</f>
+        <v>2.1128641310043373E-4</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!H31</f>
+        <v>2.0855474895847758E-4</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!I31</f>
+        <v>2.0626790405407189E-4</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!J31</f>
+        <v>2.0314930173522008E-4</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!K31</f>
+        <v>1.9712870217559122E-4</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!L31</f>
+        <v>1.9224351255042548E-4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!M31</f>
+        <v>1.88979901609504E-4</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!N31</f>
+        <v>1.8501228777610494E-4</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <f>'Technologies to power CCS'!O31</f>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1380291675640448E-4</v>
       </c>
     </row>
   </sheetData>
